--- a/InputData/Customers_details.xlsx
+++ b/InputData/Customers_details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t>Email</t>
   </si>
@@ -262,13 +262,79 @@
   </si>
   <si>
     <t>vTest 2020/02/14 12:56:43</t>
+  </si>
+  <si>
+    <t>Customer RFQ</t>
+  </si>
+  <si>
+    <t>REF number</t>
+  </si>
+  <si>
+    <t>GHT3453</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>HSN</t>
+  </si>
+  <si>
+    <t>Spcl.Dicsount</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>TGS6768</t>
+  </si>
+  <si>
+    <t>34553</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>00200</t>
+  </si>
+  <si>
+    <t>Internal remarks</t>
+  </si>
+  <si>
+    <t>Does not require constant supervision.</t>
+  </si>
+  <si>
+    <t>CustomerPO</t>
+  </si>
+  <si>
+    <t>TGTG6767</t>
+  </si>
+  <si>
+    <t>Expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +353,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF44435B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,7 +394,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,6 +407,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -637,11 +724,16 @@
     <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="8.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="8.7109375" style="1" collapsed="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16" width="8.7109375" style="1" collapsed="1"/>
     <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="18" max="47" width="8.7109375" style="1" collapsed="1"/>
+    <col min="48" max="48" width="8.7109375" style="1"/>
+    <col min="49" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="4" customFormat="1" ht="45">
@@ -787,7 +879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="60">
+    <row r="2" spans="1:47" ht="30">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -894,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="60">
+    <row r="3" spans="1:47" ht="30">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1176,6 +1268,103 @@
       <c r="AU5" s="1">
         <v>46</v>
       </c>
+    </row>
+    <row r="7" spans="1:47" ht="30">
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="78.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="6">
+        <v>57685</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/InputData/Customers_details.xlsx
+++ b/InputData/Customers_details.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Prompt Solutions\Prompt-Solutions-v1\InputData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="6060"/>
   </bookViews>
@@ -11,12 +16,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
   <si>
     <t>Email</t>
   </si>
@@ -24,12 +30,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Jyoti@12</t>
-  </si>
-  <si>
-    <t>jyoti@vtestcorp.com</t>
-  </si>
-  <si>
     <t>Company Name</t>
   </si>
   <si>
@@ -81,9 +81,6 @@
     <t>Dream City</t>
   </si>
   <si>
-    <t>Pune</t>
-  </si>
-  <si>
     <t>Maharashtra</t>
   </si>
   <si>
@@ -198,12 +195,6 @@
     <t>Quick 2019/11/27 18:27:05</t>
   </si>
   <si>
-    <t>sukanya@vtestcorp.com</t>
-  </si>
-  <si>
-    <t>sukanya@123</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>Regular</t>
   </si>
   <si>
-    <t>vTest 2020/02/14 12:56:43</t>
-  </si>
-  <si>
     <t>Customer RFQ</t>
   </si>
   <si>
@@ -328,13 +316,257 @@
   </si>
   <si>
     <t>Expense</t>
+  </si>
+  <si>
+    <t>Customer Remarks</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>There is footer inside this footer.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Next to Hyatt</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Counts2</t>
+  </si>
+  <si>
+    <t>Tax Type</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>Tax Name</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>LOP</t>
+  </si>
+  <si>
+    <t>Payment term days</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Already Done</t>
+  </si>
+  <si>
+    <t>No Remarks till now !!</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>sukanya vtest</t>
+  </si>
+  <si>
+    <t>March 26, 2020</t>
+  </si>
+  <si>
+    <t>Expiry Date(purchase request)</t>
+  </si>
+  <si>
+    <t>Purchase Request Date</t>
+  </si>
+  <si>
+    <t>March 21, 2020</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>No Specific reason</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t>Customer Source</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Trader</t>
+  </si>
+  <si>
+    <t>Newspaper</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>Delete Customer with Transaction</t>
+  </si>
+  <si>
+    <t>Delete Customer without Transaction</t>
+  </si>
+  <si>
+    <t>Transactions cases</t>
+  </si>
+  <si>
+    <t>Apple India</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>City1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>21st street</t>
+  </si>
+  <si>
+    <t>123 house</t>
+  </si>
+  <si>
+    <t>Ratnagiri</t>
+  </si>
+  <si>
+    <t>Delete Transaction</t>
+  </si>
+  <si>
+    <t>SALES MODULE</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>CGST (6.0%)</t>
+  </si>
+  <si>
+    <t>CGST (2.5%)</t>
+  </si>
+  <si>
+    <t>76 Jacolite Street</t>
+  </si>
+  <si>
+    <t>Default Address</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Add new customer  name</t>
+  </si>
+  <si>
+    <t>add relation a ddress</t>
+  </si>
+  <si>
+    <t>52nd avenue</t>
+  </si>
+  <si>
+    <t>Profit Tax</t>
+  </si>
+  <si>
+    <t>777 RP Road</t>
+  </si>
+  <si>
+    <t>Left Address</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>Compan2020/06/17 18:00:26</t>
+  </si>
+  <si>
+    <t>ghulamrashid@gmail.com</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Qatar 124</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>411011</t>
+  </si>
+  <si>
+    <t>7789066033</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>7987987</t>
+  </si>
+  <si>
+    <t>57685</t>
+  </si>
+  <si>
+    <t>Compan2020/12/11 11:35:58</t>
+  </si>
+  <si>
+    <t>Compan2020/12/11 11:41:06</t>
+  </si>
+  <si>
+    <t>Compan2020/12/11 12:15:55</t>
+  </si>
+  <si>
+    <t>Compan2020/12/11 12:19:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,17 +602,83 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -394,27 +692,46 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -423,6 +740,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -469,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,9 +826,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,6 +861,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,33 +1037,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16" width="8.7109375" style="1" collapsed="1"/>
-    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="47" width="8.7109375" style="1" collapsed="1"/>
-    <col min="48" max="48" width="8.7109375" style="1"/>
-    <col min="49" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="11" max="11" style="1" width="8.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="13" max="16" style="1" width="8.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="18" max="21" style="1" width="8.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="25" max="26" style="1" width="8.7109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="16.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="31" max="31" style="1" width="8.7109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="35" max="36" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
+    <col min="38" max="41" style="1" width="8.7109375" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="44" max="44" style="1" width="8.7109375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="46" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="4" customFormat="1" ht="45">
+    <row r="1" spans="1:47" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -744,389 +1091,392 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="T2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="W2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="4" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AI3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AL3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AM3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AN3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AO3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AS1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>35</v>
+      <c r="AP3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="30">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1">
-        <v>411011</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>7789066033</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>199</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>100</v>
-      </c>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
     </row>
-    <row r="3" spans="1:47" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1">
-        <v>411011</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>7789066033</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1234567</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>199</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>7987987</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1269,112 +1619,352 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="30">
-      <c r="B7" s="4" t="s">
+    <row r="6" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="I7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="78.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="6">
-        <v>57685</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47">
-      <c r="A9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="11" spans="1:47">
-      <c r="C11" s="6"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="R2" r:id="rId4"/>
-    <hyperlink ref="F3" r:id="rId5"/>
-    <hyperlink ref="R3" r:id="rId6"/>
-    <hyperlink ref="AR3" r:id="rId7"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="R2" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="R3" r:id="rId5"/>
+    <hyperlink ref="AR3" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId7" display="mailto:ghulamrashid@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
@@ -1382,24 +1972,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
